--- a/solution/output/23FallGrades.xlsx
+++ b/solution/output/23FallGrades.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/renw_ufl_edu/Documents/Courses/DMOR/project/solution/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{5062081D-62B6-064E-8185-01CCF87CC9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{729449E2-B3C8-1A48-98B6-70A9817C0CA4}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{5062081D-62B6-064E-8185-01CCF87CC9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DBC7EA3-B020-A640-9E83-1BB897DE7410}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="2640" windowWidth="18280" windowHeight="10560" xr2:uid="{2D314979-2A15-7244-9354-2F51FB5EC4DF}"/>
+    <workbookView xWindow="11080" yWindow="2920" windowWidth="18280" windowHeight="10560" xr2:uid="{2D314979-2A15-7244-9354-2F51FB5EC4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Team</t>
   </si>
@@ -91,14 +91,23 @@
     <t>Third</t>
   </si>
   <si>
-    <t>Rank</t>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Fifth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,8 +137,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +182,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -182,17 +216,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,105 +564,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3782D386-0643-D14F-A018-42C5CCBA838A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="1.33203125" customWidth="1"/>
+    <col min="8" max="8" width="1.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+      <c r="B2" s="15">
+        <v>13373.011640709101</v>
+      </c>
+      <c r="C2" s="15">
+        <v>14059.818126119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="B4" s="12">
         <v>13609.886202060899</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="10">
         <v>14592.3129037782</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="11">
         <v>12258.4483867042</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
+        <f>SUM(B4:D4)</f>
+        <v>40460.647492543299</v>
+      </c>
+      <c r="G4" s="11">
+        <f>F4/3</f>
+        <v>13486.882497514433</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="B5" s="16">
         <v>13943.7937040942</v>
       </c>
-      <c r="D5" s="7">
+      <c r="C5" s="16">
         <v>17740.157313368501</v>
       </c>
-      <c r="E5" s="7">
+      <c r="D5" s="10">
         <v>14549.121230479999</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="10">
+        <f>SUM(B5:D5)</f>
+        <v>46233.072247942699</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G8" si="0">F5/3</f>
+        <v>15411.024082647566</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -613,53 +701,74 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>13432.4141472708</v>
+      </c>
+      <c r="C7" s="13">
+        <v>13566.2903890548</v>
+      </c>
+      <c r="D7" s="13">
+        <v>11272.868207462499</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13">
+        <f>SUM(B7:D7)</f>
+        <v>38271.5727437881</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>12757.190914596033</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>13352.3805720936</v>
+      </c>
+      <c r="C8" s="18">
+        <v>17005.027414518001</v>
+      </c>
+      <c r="D8" s="12">
+        <v>15901.672619934099</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12">
+        <f>SUM(B8:D8)</f>
+        <v>46259.0806065457</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>15419.693535515233</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13432.4141472708</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13566.2903890548</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11272.868207462499</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -667,15 +776,38 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
